--- a/SCH-STH/Impact assessments/Burkina Faso/2024/oct/bf_2411_sch_ia_1_sites.xlsx
+++ b/SCH-STH/Impact assessments/Burkina Faso/2024/oct/bf_2411_sch_ia_1_sites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Burkina Faso\2024\oct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AFD7D9-CF4A-4A7A-877E-91DB1EEF8904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8BD29B-1471-49AA-9331-158A47D087F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="451">
   <si>
     <t>type</t>
   </si>
@@ -2162,10 +2162,10 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="bottomRight" activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
@@ -2333,8 +2333,11 @@
       <c r="M5" s="30" t="s">
         <v>433</v>
       </c>
+      <c r="N5" s="8" t="s">
+        <v>450</v>
+      </c>
       <c r="O5" s="8" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="31.5">
@@ -2361,8 +2364,11 @@
       <c r="M6" s="30" t="s">
         <v>438</v>
       </c>
+      <c r="O6" s="8" t="s">
+        <v>442</v>
+      </c>
       <c r="P6" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -2387,8 +2393,11 @@
       <c r="K7" s="30"/>
       <c r="L7" s="30"/>
       <c r="M7" s="33"/>
+      <c r="P7" s="8" t="s">
+        <v>444</v>
+      </c>
       <c r="Q7" s="8" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -2413,8 +2422,11 @@
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
       <c r="M8" s="33"/>
+      <c r="Q8" s="8" t="s">
+        <v>446</v>
+      </c>
       <c r="R8" s="8" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="47.25">
@@ -2445,8 +2457,11 @@
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
       <c r="M9" s="30"/>
+      <c r="R9" s="8" t="s">
+        <v>447</v>
+      </c>
       <c r="S9" s="8" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:19">
